--- a/docs/assets/disciplinas/LOQ4217.xlsx
+++ b/docs/assets/disciplinas/LOQ4217.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentar os conceitos de Logística, Logística Reversa e Gestão da Cadeia de Suprimentos. Capacitar o aluno para aplicação de técnicas e métodos quantitativos para otimização dos problemas em Logística e Cadeias de Suprimentos.</t>
+    <t>5840560 - Marco Antonio Carvalho Pereira</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840560 - Marco Antonio Carvalho Pereira</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>1. Introdução: 2. Gestão estratégica3. Gestão dos relacionamentos4. Gestão global de suprimentos5. Avaliação de desempenho6. Mapeamento e análise de processos7. Gestão de demanda8. Gestão e coordenação de estoques9. Gestão da logística10. Logística reversa</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,9 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1. Introdução: A concorrência entre cadeias de suprimento. Definição operacional. A globalização e a gestão de cadeia de suprimentos. Governança das cadeias de suprimentos2. Gestão estratégica: Estratégia de cadeia de suprimentos. Produtos funcionais x produtos inovadores. Fluxos empurrados puxados e híbridos. Custo de transação e a decisão estratégica de comprar ou fazer. Padronização. Integração de parceiros da cadeia de suprimento no projeto de novos produtos e processos.3. Gestão dos relacionamentos: Confiança entre parceiros. Negociação. Gestão do relacionamento com clientes. Segmentação de produtos. Gestão do relacionamento com fornecedores4. Gestão global de suprimentos: Tipos de suplemento. Estrutura organizacional para suprimentos. O processo de suprimento. Coopetição. Ética e responsabilidade social na gestão global de suprimentos5. Avaliação de desempenho: O que é medição de desempenho? Porque medir desempenho. Características de uma boa medida de desempenho. Alinhamento de incentivos em cadeias globais de suprimento. Tipos de contrato de relacionamento6. Mapeamento e análise de processos: Principais processos na cadeia de suprimento. O modelo SCOR (Supply Chain Operations Reference). Análise e melhoramento de processos.7. Gestão de demanda: Ações sobre a demanda para redução de variabilidade. Causas da variabilidade da demanda. Previsão de demanda. Processo de previsão de vendas. Métodos usados em previsões. Método Delphi. Incerteza de previsão8. Gestão e coordenação de estoques: Definição de estoques. Causa do surgimento dos estoques. Tipos de estoque. VMI (vendor management inventory) - estoque gerenciado pelo distribuidor. VOI (vendor owner inventory) - consignação9. Gestão da logística: Centralização versus descentralização. Pontos de armazenagem/distribuição. Funções dos armazéns. Sistemas logísticos escalonados. Localização de unidades logísticas. Gestão de transportes na cadeia de suprimentos.10. Logística reversa: Conceito, importância, estrutura e tendências. Sustentabilidade. Ciclo fechado. Tipos de ciclo fechado. Motivação empresarial. Gerenciamento integrado de resíduos. Modelos de roteirização. Programação de frotas de veículos.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,25 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aulas expositivas teóricas, aulas de exercícios.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média de Provas e trabalhos (MF).</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Prova de Recuperação (PR). A Nota final (NF) será a média aritmética entre MF e PR</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>CORRÊA, HENRIQUE LUIZ. Gestão de rede de suprimento: integrando cadeias de suprimento no mundo globalizado. Editora Atlas, 2009CORREA, HENRIQUE LUIZ. Administração de cadeias de suprimento e logística: o essencial. Editora Atlas 2014PIRES, SÉRGIO. Gestão da cadeia de suprimentos (Supply Chain Management): conceitos, estratégias, práticas e casos. Editora Atlas segunda edição. 2009IYER, ANANTH; SESHHADRI, SHIDHAR; VASHER, ROY. A gestão da cadeia de suprimentos da Toyota. Bookman. 2009MYERSON, PAUL. Lean Supply Chain and logistics management. McGrawHill. 2012</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -487,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,106 +603,98 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOQ4217.xlsx
+++ b/docs/assets/disciplinas/LOQ4217.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Apresentar os conceitos de Logística, Logística Reversa e Gestão da Cadeia de Suprimentos. Capacitar o aluno para aplicação de técnicas e métodos quantitativos para otimização dos problemas em Logística e Cadeias de Suprimentos.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840560 - Marco Antonio Carvalho Pereira</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>1. Introdução: 2. Gestão estratégica3. Gestão dos relacionamentos4. Gestão global de suprimentos5. Avaliação de desempenho6. Mapeamento e análise de processos7. Gestão de demanda8. Gestão e coordenação de estoques9. Gestão da logística10. Logística reversa</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -91,6 +94,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1. Introdução: A concorrência entre cadeias de suprimento. Definição operacional. A globalização e a gestão de cadeia de suprimentos. Governança das cadeias de suprimentos2. Gestão estratégica: Estratégia de cadeia de suprimentos. Produtos funcionais x produtos inovadores. Fluxos empurrados puxados e híbridos. Custo de transação e a decisão estratégica de comprar ou fazer. Padronização. Integração de parceiros da cadeia de suprimento no projeto de novos produtos e processos.3. Gestão dos relacionamentos: Confiança entre parceiros. Negociação. Gestão do relacionamento com clientes. Segmentação de produtos. Gestão do relacionamento com fornecedores4. Gestão global de suprimentos: Tipos de suplemento. Estrutura organizacional para suprimentos. O processo de suprimento. Coopetição. Ética e responsabilidade social na gestão global de suprimentos5. Avaliação de desempenho: O que é medição de desempenho? Porque medir desempenho. Características de uma boa medida de desempenho. Alinhamento de incentivos em cadeias globais de suprimento. Tipos de contrato de relacionamento6. Mapeamento e análise de processos: Principais processos na cadeia de suprimento. O modelo SCOR (Supply Chain Operations Reference). Análise e melhoramento de processos.7. Gestão de demanda: Ações sobre a demanda para redução de variabilidade. Causas da variabilidade da demanda. Previsão de demanda. Processo de previsão de vendas. Métodos usados em previsões. Método Delphi. Incerteza de previsão8. Gestão e coordenação de estoques: Definição de estoques. Causa do surgimento dos estoques. Tipos de estoque. VMI (vendor management inventory) - estoque gerenciado pelo distribuidor. VOI (vendor owner inventory) - consignação9. Gestão da logística: Centralização versus descentralização. Pontos de armazenagem/distribuição. Funções dos armazéns. Sistemas logísticos escalonados. Localização de unidades logísticas. Gestão de transportes na cadeia de suprimentos.10. Logística reversa: Conceito, importância, estrutura e tendências. Sustentabilidade. Ciclo fechado. Tipos de ciclo fechado. Motivação empresarial. Gerenciamento integrado de resíduos. Modelos de roteirização. Programação de frotas de veículos.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -100,22 +106,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Aulas expositivas teóricas, aulas de exercícios.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas expositivas teóricas, aulas de exercícios.</t>
+    <t>Média de Provas e trabalhos (MF).</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média de Provas e trabalhos (MF).</t>
+    <t>Prova de Recuperação (PR). A Nota final (NF) será a média aritmética entre MF e PR</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Prova de Recuperação (PR). A Nota final (NF) será a média aritmética entre MF e PR</t>
+    <t>CORRÊA, HENRIQUE LUIZ. Gestão de rede de suprimento: integrando cadeias de suprimento no mundo globalizado. Editora Atlas, 2009CORREA, HENRIQUE LUIZ. Administração de cadeias de suprimento e logística: o essencial. Editora Atlas 2014PIRES, SÉRGIO. Gestão da cadeia de suprimentos (Supply Chain Management): conceitos, estratégias, práticas e casos. Editora Atlas segunda edição. 2009IYER, ANANTH; SESHHADRI, SHIDHAR; VASHER, ROY. A gestão da cadeia de suprimentos da Toyota. Bookman. 2009MYERSON, PAUL. Lean Supply Chain and logistics management. McGrawHill. 2012</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -478,13 +487,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -603,98 +612,106 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
